--- a/stock_historical_data/1wk/WINSOMTX.BO.xlsx
+++ b/stock_historical_data/1wk/WINSOMTX.BO.xlsx
@@ -56700,7 +56700,9 @@
       <c r="P1061" t="n">
         <v>0</v>
       </c>
-      <c r="Q1061" t="inlineStr"/>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WINSOMTX.BO.xlsx
+++ b/stock_historical_data/1wk/WINSOMTX.BO.xlsx
@@ -59941,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WINSOMTX.BO.xlsx
+++ b/stock_historical_data/1wk/WINSOMTX.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1062"/>
+  <dimension ref="A1:R1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -59765,7 +59765,7 @@
         <v>21</v>
       </c>
       <c r="O1059" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1059" t="n">
         <v>0</v>
@@ -59944,6 +59944,114 @@
       <c r="R1062" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>82.98999786376953</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>82.98999786376953</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>78.23999786376953</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>80.70999908447266</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>80.70999908447266</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>71714</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>82.69999694824219</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>84.88999938964844</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>78</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>81.41999816894531</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>81.41999816894531</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>126709</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WINSOMTX.BO.xlsx
+++ b/stock_historical_data/1wk/WINSOMTX.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1064"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -59877,7 +59877,7 @@
         <v>23</v>
       </c>
       <c r="O1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1061" t="n">
         <v>0</v>
@@ -59997,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60051,7 +60053,477 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>104.9899978637695</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>104.9899978637695</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>99.94999694824219</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>100.1999969482422</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>73310</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>103.5999984741211</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>103.5999984741211</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>99.19999694824219</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>69224</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>99.44999694824219</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>102.5999984741211</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>88.34999847412109</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>107681</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>108.9000015258789</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>120.4499969482422</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>101.3499984741211</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>111.4499969482422</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>267603</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>115</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>95.19999694824219</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>106.6500015258789</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>107069</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>108</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>108</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>97.55000305175781</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>35066</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>85.59999847412109</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>75973</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>97.69999694824219</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>88.55000305175781</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>24970</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>99.94999694824219</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>25260</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WINSOMTX.BO.xlsx
+++ b/stock_historical_data/1wk/WINSOMTX.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -60107,7 +60107,9 @@
       <c r="Q1065" t="n">
         <v>2</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60159,7 +60161,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60211,7 +60215,9 @@
       <c r="Q1067" t="n">
         <v>1</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60263,7 +60269,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60315,7 +60323,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60367,7 +60377,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60419,7 +60431,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60471,7 +60485,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60523,7 +60539,477 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>93.98999786376953</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>80.15000152587891</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>92.51999664306641</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>42191</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>92.51999664306641</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>92.52999877929688</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>84.98999786376953</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>87.01999664306641</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>29544</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>86.90000152587891</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>104</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>86.90000152587891</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>101.9000015258789</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>57595</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>102.9499969482422</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>89</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>89.56999969482422</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>36734</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>85</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>96.38999938964844</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>85</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>93.54000091552734</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>18432</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>83.09999847412109</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>94.68000030517578</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>83.09999847412109</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>86.87999725341797</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>35659</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>89</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>88.30000305175781</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>93.91999816894531</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>40654</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>95</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>99</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>92.09999847412109</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>107671</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>98.90000152587891</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>98.90000152587891</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>89.31999969482422</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>77860</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
